--- a/biology/Zoologie/Genicanthus_caudovittatus/Genicanthus_caudovittatus.xlsx
+++ b/biology/Zoologie/Genicanthus_caudovittatus/Genicanthus_caudovittatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson-ange lyre zébré de l'océan Indien[1] (Genicanthus caudovittatus) est une espèce de poissons de la famille des pomacanthidés. Elle est présente dans les récifs coralliens[2] de l'océan Indien et de la mer Rouge. La taille maximale pour cette espèce est de 20 cm[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson-ange lyre zébré de l'océan Indien (Genicanthus caudovittatus) est une espèce de poissons de la famille des pomacanthidés. Elle est présente dans les récifs coralliens de l'océan Indien et de la mer Rouge. La taille maximale pour cette espèce est de 20 cm,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Dimorphisme sexuel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Poisson-ange lyre zébré de l'océan Indien présente un dimorphisme sexuel important. C'est la robe du mâle qui a donné le nom commun de cette espèce en raison de ses rayures noires et blanches.
 			Mâle
